--- a/SalesByModel.xlsx
+++ b/SalesByModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enc82\Documents\Team9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E97D70-C58D-4BB0-8E20-9F2E44DA1C01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975D33BC-2B44-440D-ABB1-701F90D65E44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3372" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{FE9278F7-9D50-47A1-B1CF-53BD5672653C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE9278F7-9D50-47A1-B1CF-53BD5672653C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD29331F-6A79-49CF-AEF4-25437E190549}">
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1080,7 +1080,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="2" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="3" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="17" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="26" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="27.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>10338</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="40" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" spans="1:21" ht="28.2" thickTop="1" thickBot="1">
+    <row r="53" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="9" t="s">
         <v>52</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" ht="28.2" thickTop="1" thickBot="1">
+    <row r="54" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="9" t="s">
         <v>53</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28.2" thickTop="1" thickBot="1">
+    <row r="55" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="9" t="s">
         <v>54</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="60" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="U60" s="8"/>
     </row>
-    <row r="61" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="61" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="U61" s="8"/>
     </row>
-    <row r="62" spans="1:21" ht="30" thickTop="1" thickBot="1">
+    <row r="62" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
